--- a/document-merge-service/kt_so/templatefiles/vorpruefung-baugesuche.xlsx
+++ b/document-merge-service/kt_so/templatefiles/vorpruefung-baugesuche.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\BJSVW\Agi\eBau\Dokumentenvorlagen\eBau\Systemvorlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0672BC-A505-49EE-A1DA-61ABA788F851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040EA5C4-6230-43D2-A265-79E2EA7C330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="645" windowWidth="25200" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29280" yWindow="330" windowWidth="27015" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorprüfung gross" sheetId="2" r:id="rId1"/>
@@ -1834,7 +1834,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1849,7 +1848,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1864,7 +1862,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1879,7 +1876,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1894,7 +1890,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ &quot;SFr.&quot;\ * #,##0.00_ ;_ &quot;SFr.&quot;\ * \-#,##0.00_ ;_ &quot;SFr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1985,24 +1981,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2642,18 +2624,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2673,22 +2659,6 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2710,6 +2680,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2994,7 +2976,7 @@
   <dimension ref="A1:L467"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,14 +2993,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>346</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="165" t="s">
         <v>347</v>
       </c>
       <c r="I2" s="4"/>
@@ -3058,15 +3040,15 @@
       <c r="A6" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="166" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
         <v>349</v>
@@ -3076,16 +3058,16 @@
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="168" t="s">
         <v>342</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3108,16 +3090,16 @@
       <c r="A9" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="168" t="s">
         <v>343</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3169,33 +3151,33 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="151" t="s">
+      <c r="D13" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="152"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="154"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="155" t="s">
+      <c r="J13" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
     </row>
     <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="147"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="147"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="19" t="s">
         <v>12</v>
       </c>
@@ -3214,23 +3196,23 @@
       <c r="I14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="156"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="1:12" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
@@ -4125,18 +4107,18 @@
       <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="161" t="s">
+      <c r="A61" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="162"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="162"/>
-      <c r="G61" s="162"/>
-      <c r="H61" s="162"/>
-      <c r="I61" s="162"/>
-      <c r="J61" s="162"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
+      <c r="J61" s="147"/>
     </row>
     <row r="62" spans="1:10" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
@@ -7727,11 +7709,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A61:J61"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B9:I9"/>
@@ -7740,6 +7717,11 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A61:J61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7750,7 +7732,7 @@
   <dimension ref="A1:K291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7768,7 +7750,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="164" t="s">
         <v>346</v>
       </c>
       <c r="G1" s="1"/>
@@ -7776,7 +7758,7 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="165" t="s">
         <v>347</v>
       </c>
       <c r="G2" s="1"/>
@@ -7987,11 +7969,11 @@
       <c r="B15" s="111"/>
       <c r="C15" s="112"/>
       <c r="D15" s="112"/>
-      <c r="E15" s="163" t="s">
+      <c r="E15" s="157" t="s">
         <v>309</v>
       </c>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
       <c r="H15" s="115"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112" t="s">
@@ -8189,15 +8171,15 @@
       <c r="J27" s="100"/>
     </row>
     <row r="28" spans="1:10" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="158" t="s">
         <v>322</v>
       </c>
-      <c r="B28" s="164"/>
+      <c r="B28" s="158"/>
       <c r="C28" s="72"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="167"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="161"/>
       <c r="H28" s="112"/>
       <c r="I28" s="127"/>
       <c r="J28" s="128" t="s">
@@ -8205,17 +8187,17 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="164" t="s">
+      <c r="A29" s="158" t="s">
         <v>324</v>
       </c>
-      <c r="B29" s="164"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="129"/>
-      <c r="D29" s="168" t="s">
+      <c r="D29" s="162" t="s">
         <v>325</v>
       </c>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="169"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="112"/>
       <c r="I29" s="26"/>
       <c r="J29" s="128" t="s">
